--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N2">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O2">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P2">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q2">
-        <v>6791.221956849536</v>
+        <v>255.19006192349</v>
       </c>
       <c r="R2">
-        <v>61120.99761164582</v>
+        <v>2296.71055731141</v>
       </c>
       <c r="S2">
-        <v>0.5259007972250731</v>
+        <v>0.0976020541388166</v>
       </c>
       <c r="T2">
-        <v>0.5259007972250731</v>
+        <v>0.09760205413881658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>84.71831</v>
       </c>
       <c r="O3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P3">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q3">
-        <v>2793.241101615623</v>
+        <v>1013.99285936183</v>
       </c>
       <c r="R3">
-        <v>25139.16991454061</v>
+        <v>9125.935734256469</v>
       </c>
       <c r="S3">
-        <v>0.2163038892728159</v>
+        <v>0.3878199065035648</v>
       </c>
       <c r="T3">
-        <v>0.2163038892728159</v>
+        <v>0.3878199065035647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>27.368585</v>
       </c>
       <c r="O4">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P4">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q4">
-        <v>902.3675816368484</v>
+        <v>327.574402284905</v>
       </c>
       <c r="R4">
-        <v>8121.308234731635</v>
+        <v>2948.169620564145</v>
       </c>
       <c r="S4">
-        <v>0.0698778266397624</v>
+        <v>0.1252867541365599</v>
       </c>
       <c r="T4">
-        <v>0.06987782663976239</v>
+        <v>0.1252867541365599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N5">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O5">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P5">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q5">
-        <v>1170.536144060634</v>
+        <v>121.1641634908045</v>
       </c>
       <c r="R5">
-        <v>10534.8252965457</v>
+        <v>1090.47747141724</v>
       </c>
       <c r="S5">
-        <v>0.09064434872745968</v>
+        <v>0.04634142550684246</v>
       </c>
       <c r="T5">
-        <v>0.09064434872745966</v>
+        <v>0.04634142550684243</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>84.71831</v>
       </c>
       <c r="O6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P6">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q6">
         <v>481.4435000492312</v>
@@ -818,10 +818,10 @@
         <v>4332.99150044308</v>
       </c>
       <c r="S6">
-        <v>0.0372821742689995</v>
+        <v>0.1841367732050425</v>
       </c>
       <c r="T6">
-        <v>0.0372821742689995</v>
+        <v>0.1841367732050424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>27.368585</v>
       </c>
       <c r="O7">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P7">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q7">
         <v>155.5322261951978</v>
@@ -880,10 +880,10 @@
         <v>1399.79003575678</v>
       </c>
       <c r="S7">
-        <v>0.01204415380176878</v>
+        <v>0.0594861126135298</v>
       </c>
       <c r="T7">
-        <v>0.01204415380176877</v>
+        <v>0.05948611261352978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J8">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>68.65869266666667</v>
+        <v>7.106976666666665</v>
       </c>
       <c r="N8">
-        <v>205.976078</v>
+        <v>21.32093</v>
       </c>
       <c r="O8">
-        <v>0.6475952735309433</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="P8">
-        <v>0.6475952735309431</v>
+        <v>0.1598176868560746</v>
       </c>
       <c r="Q8">
-        <v>400.9659412690214</v>
+        <v>41.50465844961333</v>
       </c>
       <c r="R8">
-        <v>3608.693471421192</v>
+        <v>373.54192604652</v>
       </c>
       <c r="S8">
-        <v>0.03105012757841043</v>
+        <v>0.01587420721041554</v>
       </c>
       <c r="T8">
-        <v>0.03105012757841042</v>
+        <v>0.01587420721041554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J9">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>84.71831</v>
       </c>
       <c r="O9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576649</v>
       </c>
       <c r="P9">
-        <v>0.2663570336431459</v>
+        <v>0.6350325402576648</v>
       </c>
       <c r="Q9">
         <v>164.9179712600934</v>
@@ -1004,10 +1004,10 @@
         <v>1484.26174134084</v>
       </c>
       <c r="S9">
-        <v>0.01277097010133052</v>
+        <v>0.06307586054905763</v>
       </c>
       <c r="T9">
-        <v>0.01277097010133052</v>
+        <v>0.06307586054905762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.0479468100641207</v>
+        <v>0.09932697389564409</v>
       </c>
       <c r="J10">
-        <v>0.04794681006412069</v>
+        <v>0.09932697389564407</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>27.368585</v>
       </c>
       <c r="O10">
-        <v>0.08604769282591093</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="P10">
-        <v>0.08604769282591092</v>
+        <v>0.2051497728862606</v>
       </c>
       <c r="Q10">
         <v>53.27740265899335</v>
@@ -1066,10 +1066,10 @@
         <v>479.49662393094</v>
       </c>
       <c r="S10">
-        <v>0.004125712384379753</v>
+        <v>0.02037690613617092</v>
       </c>
       <c r="T10">
-        <v>0.004125712384379751</v>
+        <v>0.02037690613617092</v>
       </c>
     </row>
   </sheetData>
